--- a/agents/RubiksCube/csv/rubiksCubeTest.xlsx
+++ b/agents/RubiksCube/csv/rubiksCubeTest.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang\Documents\GitHub\GBG\agents\RubiksCube\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAEE791F-6F0C-4EE9-B361-A0A93385D18B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6282C0-A122-4DD3-962A-FAB336A952BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8592" xr2:uid="{FD5D1314-A489-4D22-8E43-294236FDD28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8592" activeTab="1" xr2:uid="{FD5D1314-A489-4D22-8E43-294236FDD28A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="2x2x2_STICKER2_AT" sheetId="2" r:id="rId1"/>
+    <sheet name="3x3x3_STICKER2_AT" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,8 +25,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>wolfgang</author>
+  </authors>
+  <commentList>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{5003B643-9BD9-4C38-A2F4-CEAD1036D0A9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>time factor compared to maxDepth=50</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t xml:space="preserve">RubiksCube </t>
   </si>
@@ -51,21 +75,52 @@
     <t>EPS</t>
   </si>
   <si>
-    <t>%solved</t>
+    <t>sec</t>
   </si>
   <si>
-    <t>sec</t>
+    <t>manually taken from logs rubiks*.txt</t>
+  </si>
+  <si>
+    <t>%solved in 20 mv</t>
+  </si>
+  <si>
+    <t>%solved in p mv</t>
+  </si>
+  <si>
+    <t>2x2x2_STICKER2_AT</t>
+  </si>
+  <si>
+    <t>TCL4-p13-3000k-60-7t.agt.zip</t>
+  </si>
+  <si>
+    <t>Eval with p=11,12,13, EvalNum=200</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>all with reward_neg=-1 after maxDepth</t>
+  </si>
+  <si>
+    <t>reward_neg after maxDepth</t>
+  </si>
+  <si>
+    <t>MaxN2Wrapper</t>
+  </si>
+  <si>
+    <t>nPly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +135,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -89,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,18 +158,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -422,32 +501,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2220E311-6039-45A3-998B-ADC000DB5AE7}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFABA389-DD16-4B54-ABF0-E841D7CC2F95}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -461,13 +547,16 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>50</v>
       </c>
@@ -480,14 +569,17 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0.28166600000000003</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="8">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>50</v>
       </c>
@@ -500,14 +592,17 @@
       <c r="D6">
         <v>100</v>
       </c>
-      <c r="E6">
-        <v>0.34666599999999997</v>
-      </c>
-      <c r="F6" s="2">
-        <v>86.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="8">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
@@ -520,14 +615,17 @@
       <c r="D7">
         <v>200</v>
       </c>
-      <c r="E7">
-        <v>0.57166600000000001</v>
-      </c>
-      <c r="F7" s="2">
-        <v>118.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="8">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>50</v>
       </c>
@@ -540,14 +638,17 @@
       <c r="D8">
         <v>500</v>
       </c>
-      <c r="E8" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="F8" s="2">
-        <v>267.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="8">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>50</v>
       </c>
@@ -560,14 +661,17 @@
       <c r="D9">
         <v>1000</v>
       </c>
-      <c r="E9">
-        <v>0.70833299999999999</v>
-      </c>
-      <c r="F9" s="2">
-        <v>553.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="8">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>50</v>
       </c>
@@ -580,14 +684,17 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="4">
-        <v>0.245</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="8">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.73333300000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>50</v>
       </c>
@@ -600,14 +707,17 @@
       <c r="D11">
         <v>100</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5.3332999999999998E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>50</v>
       </c>
@@ -620,14 +730,17 @@
       <c r="D12">
         <v>200</v>
       </c>
-      <c r="E12" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>50</v>
       </c>
@@ -640,14 +753,17 @@
       <c r="D13">
         <v>500</v>
       </c>
-      <c r="E13" s="5">
-        <v>0.108333</v>
-      </c>
-      <c r="F13" s="2">
-        <v>933.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="8">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>144.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>50</v>
       </c>
@@ -660,14 +776,17 @@
       <c r="D14">
         <v>1000</v>
       </c>
-      <c r="E14" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1539.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>265.89999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-1</v>
       </c>
@@ -680,14 +799,17 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>0.26833299999999999</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="8">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.77833300000000005</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-1</v>
       </c>
@@ -700,14 +822,17 @@
       <c r="D16">
         <v>100</v>
       </c>
-      <c r="E16">
-        <v>0.25333299999999997</v>
-      </c>
-      <c r="F16" s="2">
-        <v>125.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="8">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-1</v>
       </c>
@@ -720,14 +845,17 @@
       <c r="D17">
         <v>200</v>
       </c>
-      <c r="E17">
-        <v>0.473333</v>
-      </c>
-      <c r="F17" s="2">
-        <v>201.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="8">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-1</v>
       </c>
@@ -740,14 +868,17 @@
       <c r="D18">
         <v>500</v>
       </c>
-      <c r="E18" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="F18" s="2">
-        <v>395.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="8">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-1</v>
       </c>
@@ -760,14 +891,17 @@
       <c r="D19">
         <v>1000</v>
       </c>
-      <c r="E19">
-        <v>0.69333299999999998</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1204.0999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="8">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>192.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-1</v>
       </c>
@@ -780,14 +914,17 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="4">
-        <v>0.283333</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-1</v>
       </c>
@@ -800,14 +937,17 @@
       <c r="D21">
         <v>100</v>
       </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>153.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5.3332999999999998E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-1</v>
       </c>
@@ -820,14 +960,17 @@
       <c r="D22">
         <v>200</v>
       </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>347.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="8">
+        <v>0.873</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="G22" s="2">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-1</v>
       </c>
@@ -840,10 +983,17 @@
       <c r="D23">
         <v>500</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="8">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.99833300000000003</v>
+      </c>
+      <c r="G23" s="2">
+        <v>208.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-1</v>
       </c>
@@ -856,11 +1006,902 @@
       <c r="D24">
         <v>1000</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
+      <c r="E24" s="8">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>282.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>56.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2220E311-6039-45A3-998B-ADC000DB5AE7}">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F5">
+        <v>0.26833299999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.371666</v>
+      </c>
+      <c r="G6" s="2">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.61333300000000002</v>
+      </c>
+      <c r="G7" s="2">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.65833299999999995</v>
+      </c>
+      <c r="G8" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>25</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1E-8</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.67166599999999999</v>
+      </c>
+      <c r="G9" s="13">
+        <v>465.7</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.28166600000000003</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.315</v>
+      </c>
+      <c r="F11">
+        <v>0.34666599999999997</v>
+      </c>
+      <c r="G11" s="2">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.57166600000000001</v>
+      </c>
+      <c r="G12" s="2">
+        <v>118.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G13" s="2">
+        <v>267.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.70833299999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>553.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.245</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>500</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.108333</v>
+      </c>
+      <c r="G18" s="2">
+        <v>933.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>50</v>
+      </c>
+      <c r="B19" s="10">
+        <v>20</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1539.9</v>
+      </c>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-1</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.245</v>
+      </c>
+      <c r="F20">
+        <v>0.26833299999999999</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="H20" s="3">
+        <f>G20/G10</f>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-1</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="F21">
+        <v>0.25333299999999997</v>
+      </c>
+      <c r="G21" s="2">
+        <v>125.1</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" ref="H21:H29" si="0">G21/G11</f>
+        <v>1.4529616724738676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-1</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F22">
+        <v>0.473333</v>
+      </c>
+      <c r="G22" s="2">
+        <v>201.2</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6950294860994102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D23">
+        <v>500</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.65659999999999996</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="G23" s="2">
+        <v>395.3</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4788627010849233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-1</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.69333299999999998</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1204.0999999999999</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1738580971294459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.283333</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>153.4</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3224137931034483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-1</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>200</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>347.9</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3078947368421052</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-1</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>500</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.373</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.408333</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1266.7</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>1.356355070135989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-1</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.53166599999999997</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2944</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9118124553542437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D32">
+        <v>500</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G32">
+        <v>269.8</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D33">
+        <v>500</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G33" s="2">
+        <v>267.3</v>
+      </c>
+      <c r="H33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D34">
+        <v>500</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G34">
+        <v>453.6</v>
+      </c>
+      <c r="H34">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D35">
+        <v>500</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0.623</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="G35" s="2">
+        <v>288</v>
+      </c>
+      <c r="H35">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.45166000000000001</v>
+      </c>
+      <c r="G38">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.65833299999999995</v>
+      </c>
+      <c r="G39" s="2">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.81333299999999997</v>
+      </c>
+      <c r="G40" s="2">
+        <v>3400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>